--- a/通用模板/自定义导入.xlsx
+++ b/通用模板/自定义导入.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="1"/>
+    <workbookView windowWidth="20400" windowHeight="8550"/>
   </bookViews>
   <sheets>
-    <sheet name="导入" sheetId="1" r:id="rId1"/>
+    <sheet name="数据" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -87,16 +87,144 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,134 +237,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -253,25 +253,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,18 +427,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,132 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,25 +448,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +477,55 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,170 +544,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,8 +1004,8 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1034,7 +1034,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1068,7 +1068,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/通用模板/自定义导入.xlsx
+++ b/通用模板/自定义导入.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550"/>
+    <workbookView windowWidth="21510" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="数据" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
+    <sheet name="说明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -18,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eyes</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -33,17 +35,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">“编号”字段必须放第一列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>自定义字段</t>
+    <t>字段名称</t>
   </si>
   <si>
     <t>条件</t>
@@ -63,18 +78,30 @@
   <si>
     <t>是/否</t>
   </si>
+  <si>
+    <t>给某些字段直接赋值</t>
+  </si>
+  <si>
+    <t>可以导入某字段的值</t>
+  </si>
+  <si>
+    <t>同时也可以替换某字段的值</t>
+  </si>
+  <si>
+    <t>1.0 只能单字段赋值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -88,65 +115,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,71 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,6 +217,65 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -253,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +483,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,30 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -497,11 +527,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,149 +572,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -736,6 +786,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="0"/>
@@ -1002,25 +1053,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1035,7 +1146,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1071,4 +1182,41 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>